--- a/Triển khai thực tế/5.Proxmox-Ceph-Nexus3064 - Lần 4/IP Planing.xlsx
+++ b/Triển khai thực tế/5.Proxmox-Ceph-Nexus3064 - Lần 4/IP Planing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TuDV-ThucTap2025\THUCTAPNHANHOA2025-HATANG\Triển khai thực tế\5.Proxmox-Ceph-Nexus3064 - Lần 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THUCTAPNHANHOA2025-HATANG\Triển khai thực tế\5.Proxmox-Ceph-Nexus3064 - Lần 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32B24DC-AAE7-4DA7-9F5C-6F35FBA47F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +116,6 @@
     <t>Một ổ cứng cài OS +  2 ổ cứng làm OSD</t>
   </si>
   <si>
-    <t>Ổ cứng cài OS</t>
-  </si>
-  <si>
     <t>Switch 3750</t>
   </si>
   <si>
@@ -129,14 +125,17 @@
     <t>Switch dùng ra Internet</t>
   </si>
   <si>
+    <t>Tối thiểu 1 ổ cứng cài OS</t>
+  </si>
+  <si>
     <t>Switch 10G dùng giao tiếp giữa các node
- Proxmox  với nhau và Sử dụng cho các node Proxmox liên lạc với Cụm Ceph, Switch mạng Ceph</t>
+Proxmox  với nhau , giao tiếp của cụm Proxmox  với Cụm Ceph, switch mạng Ceph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,32 +245,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,227 +551,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
